--- a/src/test/resources/Vytracktestdata.xlsx
+++ b/src/test/resources/Vytracktestdata.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamaldemir/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asude\OneDrive\Masaüstü\YazilimDersleri\Automation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C183250-0134-844D-AA10-75375100C696}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19480" activeTab="5" xr2:uid="{506372D9-39D2-EA47-AA3D-ABD5428ED2AB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12885" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="QA1-all" sheetId="4" r:id="rId1"/>
@@ -20,7 +19,7 @@
     <sheet name="QA3-all" sheetId="1" r:id="rId5"/>
     <sheet name="QA3-short" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3839" uniqueCount="1475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3823" uniqueCount="1475">
   <si>
     <t>username</t>
   </si>
@@ -4466,7 +4465,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -4811,20 +4810,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D70E95-9193-2444-8F5D-57688B5675B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D302"/>
   <sheetViews>
     <sheetView topLeftCell="A212" zoomScale="200" workbookViewId="0">
       <selection activeCell="A231" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4838,7 +4837,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4852,7 +4851,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4866,7 +4865,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4880,7 +4879,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -4894,7 +4893,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -4908,7 +4907,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -4922,7 +4921,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -4936,7 +4935,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -4950,7 +4949,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -4964,7 +4963,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -4978,7 +4977,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -4992,7 +4991,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -5006,7 +5005,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -5020,7 +5019,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -5034,7 +5033,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -5048,7 +5047,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -5062,7 +5061,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -5076,7 +5075,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -5090,7 +5089,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -5104,7 +5103,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -5118,7 +5117,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -5132,7 +5131,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -5146,7 +5145,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -5160,7 +5159,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -5174,7 +5173,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -5188,7 +5187,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -5202,7 +5201,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -5216,7 +5215,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -5230,7 +5229,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -5244,7 +5243,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -5258,7 +5257,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -5272,7 +5271,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -5286,7 +5285,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -5300,7 +5299,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -5314,7 +5313,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -5328,7 +5327,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -5342,7 +5341,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -5356,7 +5355,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -5370,7 +5369,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -5384,7 +5383,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -5398,7 +5397,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -5412,7 +5411,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -5426,7 +5425,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -5440,7 +5439,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -5454,7 +5453,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -5468,7 +5467,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -5482,7 +5481,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -5496,7 +5495,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -5510,7 +5509,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -5524,7 +5523,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -5538,7 +5537,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -5552,7 +5551,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -5566,7 +5565,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -5580,7 +5579,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -5594,7 +5593,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -5608,7 +5607,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -5622,7 +5621,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -5636,7 +5635,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -5650,7 +5649,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -5664,7 +5663,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -5678,7 +5677,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -5692,7 +5691,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -5706,7 +5705,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -5720,7 +5719,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -5734,7 +5733,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -5748,7 +5747,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -5762,7 +5761,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -5776,7 +5775,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -5790,7 +5789,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -5804,7 +5803,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -5818,7 +5817,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -5832,7 +5831,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -5846,7 +5845,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -5860,7 +5859,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -5874,7 +5873,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -5888,7 +5887,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -5902,7 +5901,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -5916,7 +5915,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -5930,7 +5929,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -5944,7 +5943,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -5958,7 +5957,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -5972,7 +5971,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -5986,7 +5985,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -6000,7 +5999,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -6014,7 +6013,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -6028,7 +6027,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -6042,7 +6041,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -6056,7 +6055,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -6070,7 +6069,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -6084,7 +6083,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -6098,7 +6097,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -6112,7 +6111,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -6126,7 +6125,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -6140,7 +6139,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -6154,7 +6153,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -6168,7 +6167,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -6182,7 +6181,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -6196,7 +6195,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -6210,7 +6209,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -6224,7 +6223,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -6238,7 +6237,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -6252,7 +6251,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -6266,7 +6265,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -6280,7 +6279,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -6294,7 +6293,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -6308,7 +6307,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -6322,7 +6321,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -6336,7 +6335,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -6350,7 +6349,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -6364,7 +6363,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -6378,7 +6377,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -6392,7 +6391,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -6406,7 +6405,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -6420,7 +6419,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -6434,7 +6433,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -6448,7 +6447,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -6462,7 +6461,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -6476,7 +6475,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -6490,7 +6489,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -6504,7 +6503,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -6518,7 +6517,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -6532,7 +6531,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -6546,7 +6545,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -6560,7 +6559,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>124</v>
       </c>
@@ -6574,7 +6573,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>125</v>
       </c>
@@ -6588,7 +6587,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>126</v>
       </c>
@@ -6602,7 +6601,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -6616,7 +6615,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>128</v>
       </c>
@@ -6630,7 +6629,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -6644,7 +6643,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>130</v>
       </c>
@@ -6658,7 +6657,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -6672,7 +6671,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>132</v>
       </c>
@@ -6686,7 +6685,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -6700,7 +6699,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>134</v>
       </c>
@@ -6714,7 +6713,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>135</v>
       </c>
@@ -6728,7 +6727,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>136</v>
       </c>
@@ -6742,7 +6741,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>137</v>
       </c>
@@ -6756,7 +6755,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>138</v>
       </c>
@@ -6770,7 +6769,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>139</v>
       </c>
@@ -6784,7 +6783,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>140</v>
       </c>
@@ -6798,7 +6797,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>141</v>
       </c>
@@ -6812,7 +6811,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>142</v>
       </c>
@@ -6826,7 +6825,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>143</v>
       </c>
@@ -6840,7 +6839,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>144</v>
       </c>
@@ -6854,7 +6853,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>145</v>
       </c>
@@ -6868,7 +6867,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>146</v>
       </c>
@@ -6882,7 +6881,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -6896,7 +6895,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>148</v>
       </c>
@@ -6910,7 +6909,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>149</v>
       </c>
@@ -6924,7 +6923,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>150</v>
       </c>
@@ -6938,7 +6937,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>151</v>
       </c>
@@ -6952,7 +6951,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>152</v>
       </c>
@@ -6966,7 +6965,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -6980,7 +6979,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>154</v>
       </c>
@@ -6994,7 +6993,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>155</v>
       </c>
@@ -7008,7 +7007,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>156</v>
       </c>
@@ -7022,7 +7021,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>157</v>
       </c>
@@ -7036,7 +7035,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>158</v>
       </c>
@@ -7050,7 +7049,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>159</v>
       </c>
@@ -7064,7 +7063,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>160</v>
       </c>
@@ -7078,7 +7077,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>161</v>
       </c>
@@ -7092,7 +7091,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>162</v>
       </c>
@@ -7106,7 +7105,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>163</v>
       </c>
@@ -7120,7 +7119,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>164</v>
       </c>
@@ -7134,7 +7133,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>165</v>
       </c>
@@ -7148,7 +7147,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>166</v>
       </c>
@@ -7162,7 +7161,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>167</v>
       </c>
@@ -7176,7 +7175,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>168</v>
       </c>
@@ -7190,7 +7189,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>169</v>
       </c>
@@ -7204,7 +7203,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>170</v>
       </c>
@@ -7218,7 +7217,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>171</v>
       </c>
@@ -7232,7 +7231,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>172</v>
       </c>
@@ -7246,7 +7245,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>173</v>
       </c>
@@ -7260,7 +7259,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>174</v>
       </c>
@@ -7274,7 +7273,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>175</v>
       </c>
@@ -7288,7 +7287,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>176</v>
       </c>
@@ -7302,7 +7301,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>177</v>
       </c>
@@ -7316,7 +7315,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>178</v>
       </c>
@@ -7330,7 +7329,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>179</v>
       </c>
@@ -7344,7 +7343,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>180</v>
       </c>
@@ -7358,7 +7357,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>181</v>
       </c>
@@ -7372,7 +7371,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>182</v>
       </c>
@@ -7386,7 +7385,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>183</v>
       </c>
@@ -7400,7 +7399,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>184</v>
       </c>
@@ -7414,7 +7413,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>185</v>
       </c>
@@ -7428,7 +7427,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>186</v>
       </c>
@@ -7442,7 +7441,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>187</v>
       </c>
@@ -7456,7 +7455,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>188</v>
       </c>
@@ -7470,7 +7469,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>189</v>
       </c>
@@ -7484,7 +7483,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>190</v>
       </c>
@@ -7498,7 +7497,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>191</v>
       </c>
@@ -7512,7 +7511,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>192</v>
       </c>
@@ -7526,7 +7525,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>193</v>
       </c>
@@ -7540,7 +7539,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>194</v>
       </c>
@@ -7554,7 +7553,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>195</v>
       </c>
@@ -7568,7 +7567,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>196</v>
       </c>
@@ -7582,7 +7581,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>197</v>
       </c>
@@ -7596,7 +7595,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>198</v>
       </c>
@@ -7610,7 +7609,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>199</v>
       </c>
@@ -7624,7 +7623,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>200</v>
       </c>
@@ -7638,7 +7637,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>201</v>
       </c>
@@ -7652,7 +7651,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>202</v>
       </c>
@@ -7666,7 +7665,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>203</v>
       </c>
@@ -7680,7 +7679,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>204</v>
       </c>
@@ -7694,7 +7693,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>205</v>
       </c>
@@ -7708,7 +7707,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>206</v>
       </c>
@@ -7722,7 +7721,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>207</v>
       </c>
@@ -7736,7 +7735,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>208</v>
       </c>
@@ -7750,7 +7749,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>209</v>
       </c>
@@ -7764,7 +7763,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>210</v>
       </c>
@@ -7778,7 +7777,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>211</v>
       </c>
@@ -7792,7 +7791,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>212</v>
       </c>
@@ -7806,7 +7805,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>213</v>
       </c>
@@ -7820,7 +7819,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>214</v>
       </c>
@@ -7834,7 +7833,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>215</v>
       </c>
@@ -7848,7 +7847,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>216</v>
       </c>
@@ -7862,7 +7861,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>217</v>
       </c>
@@ -7876,7 +7875,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>218</v>
       </c>
@@ -7890,7 +7889,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>219</v>
       </c>
@@ -7904,7 +7903,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>220</v>
       </c>
@@ -7918,7 +7917,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>221</v>
       </c>
@@ -7932,7 +7931,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>222</v>
       </c>
@@ -7946,7 +7945,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>223</v>
       </c>
@@ -7960,7 +7959,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>224</v>
       </c>
@@ -7974,7 +7973,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>225</v>
       </c>
@@ -7988,7 +7987,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>226</v>
       </c>
@@ -8002,7 +8001,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>227</v>
       </c>
@@ -8016,7 +8015,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>228</v>
       </c>
@@ -8030,7 +8029,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>229</v>
       </c>
@@ -8044,7 +8043,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>230</v>
       </c>
@@ -8058,7 +8057,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>231</v>
       </c>
@@ -8072,7 +8071,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>232</v>
       </c>
@@ -8086,7 +8085,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>233</v>
       </c>
@@ -8100,7 +8099,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>234</v>
       </c>
@@ -8114,7 +8113,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>235</v>
       </c>
@@ -8128,7 +8127,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>236</v>
       </c>
@@ -8142,7 +8141,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>237</v>
       </c>
@@ -8156,7 +8155,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>238</v>
       </c>
@@ -8170,7 +8169,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>239</v>
       </c>
@@ -8184,7 +8183,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>240</v>
       </c>
@@ -8198,7 +8197,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>241</v>
       </c>
@@ -8212,7 +8211,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>242</v>
       </c>
@@ -8226,7 +8225,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>243</v>
       </c>
@@ -8240,7 +8239,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>244</v>
       </c>
@@ -8254,7 +8253,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>245</v>
       </c>
@@ -8268,7 +8267,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>246</v>
       </c>
@@ -8282,7 +8281,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>247</v>
       </c>
@@ -8296,7 +8295,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>248</v>
       </c>
@@ -8310,7 +8309,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>249</v>
       </c>
@@ -8324,7 +8323,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>250</v>
       </c>
@@ -8338,7 +8337,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>251</v>
       </c>
@@ -8352,7 +8351,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>252</v>
       </c>
@@ -8366,7 +8365,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>253</v>
       </c>
@@ -8380,7 +8379,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>254</v>
       </c>
@@ -8394,7 +8393,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>255</v>
       </c>
@@ -8408,7 +8407,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>256</v>
       </c>
@@ -8422,7 +8421,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>257</v>
       </c>
@@ -8436,7 +8435,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>258</v>
       </c>
@@ -8450,7 +8449,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>259</v>
       </c>
@@ -8464,7 +8463,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>260</v>
       </c>
@@ -8478,7 +8477,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>261</v>
       </c>
@@ -8492,7 +8491,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>262</v>
       </c>
@@ -8506,7 +8505,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>263</v>
       </c>
@@ -8520,7 +8519,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>264</v>
       </c>
@@ -8534,7 +8533,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>265</v>
       </c>
@@ -8548,7 +8547,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>266</v>
       </c>
@@ -8562,7 +8561,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>267</v>
       </c>
@@ -8576,7 +8575,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>268</v>
       </c>
@@ -8590,7 +8589,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>269</v>
       </c>
@@ -8604,7 +8603,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>270</v>
       </c>
@@ -8618,7 +8617,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>271</v>
       </c>
@@ -8632,7 +8631,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>272</v>
       </c>
@@ -8646,7 +8645,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>273</v>
       </c>
@@ -8660,7 +8659,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>274</v>
       </c>
@@ -8674,7 +8673,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>275</v>
       </c>
@@ -8688,7 +8687,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>276</v>
       </c>
@@ -8702,7 +8701,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>277</v>
       </c>
@@ -8716,7 +8715,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>278</v>
       </c>
@@ -8730,7 +8729,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>279</v>
       </c>
@@ -8744,7 +8743,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>280</v>
       </c>
@@ -8758,7 +8757,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>281</v>
       </c>
@@ -8772,7 +8771,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>282</v>
       </c>
@@ -8786,7 +8785,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>283</v>
       </c>
@@ -8800,7 +8799,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>284</v>
       </c>
@@ -8814,7 +8813,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>285</v>
       </c>
@@ -8828,7 +8827,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>286</v>
       </c>
@@ -8842,7 +8841,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>287</v>
       </c>
@@ -8856,7 +8855,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>288</v>
       </c>
@@ -8870,7 +8869,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>289</v>
       </c>
@@ -8884,7 +8883,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>290</v>
       </c>
@@ -8898,7 +8897,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>291</v>
       </c>
@@ -8912,7 +8911,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>292</v>
       </c>
@@ -8926,7 +8925,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>293</v>
       </c>
@@ -8940,7 +8939,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>294</v>
       </c>
@@ -8954,7 +8953,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>295</v>
       </c>
@@ -8968,7 +8967,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>296</v>
       </c>
@@ -8982,7 +8981,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>297</v>
       </c>
@@ -8996,7 +8995,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>298</v>
       </c>
@@ -9010,7 +9009,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>299</v>
       </c>
@@ -9024,7 +9023,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>300</v>
       </c>
@@ -9038,7 +9037,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>301</v>
       </c>
@@ -9055,20 +9054,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D25414FC-EB42-5647-8F63-8642E32C4CF3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView zoomScale="200" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
+    <sheetView zoomScale="200" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9085,7 +9082,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -9102,7 +9099,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -9119,7 +9116,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -9136,7 +9133,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -9153,7 +9150,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -9170,7 +9167,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>102</v>
       </c>
@@ -9187,7 +9184,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>103</v>
       </c>
@@ -9204,7 +9201,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>104</v>
       </c>
@@ -9221,7 +9218,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>105</v>
       </c>
@@ -9238,7 +9235,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>106</v>
       </c>
@@ -9255,7 +9252,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>202</v>
       </c>
@@ -9272,7 +9269,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>203</v>
       </c>
@@ -9289,7 +9286,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>204</v>
       </c>
@@ -9306,7 +9303,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>205</v>
       </c>
@@ -9323,7 +9320,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>206</v>
       </c>
@@ -9346,20 +9343,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E126431-3714-5A42-8C23-7F054B5E2FB1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D302"/>
   <sheetViews>
     <sheetView topLeftCell="A236" zoomScale="223" workbookViewId="0">
       <selection activeCell="B209" sqref="B209"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9373,7 +9370,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -9387,7 +9384,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -9401,7 +9398,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -9415,7 +9412,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -9429,7 +9426,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -9443,7 +9440,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -9457,7 +9454,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -9471,7 +9468,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -9485,7 +9482,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -9499,7 +9496,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -9513,7 +9510,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -9527,7 +9524,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -9541,7 +9538,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -9555,7 +9552,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -9569,7 +9566,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -9583,7 +9580,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -9597,7 +9594,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -9611,7 +9608,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -9625,7 +9622,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -9639,7 +9636,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -9653,7 +9650,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -9667,7 +9664,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -9681,7 +9678,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -9695,7 +9692,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -9709,7 +9706,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -9723,7 +9720,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -9737,7 +9734,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -9751,7 +9748,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -9765,7 +9762,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -9779,7 +9776,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -9793,7 +9790,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -9807,7 +9804,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -9821,7 +9818,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -9835,7 +9832,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -9849,7 +9846,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -9863,7 +9860,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -9877,7 +9874,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -9891,7 +9888,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -9905,7 +9902,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -9919,7 +9916,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -9933,7 +9930,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -9947,7 +9944,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -9961,7 +9958,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -9975,7 +9972,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -9989,7 +9986,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -10003,7 +10000,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -10017,7 +10014,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -10031,7 +10028,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -10045,7 +10042,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -10059,7 +10056,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -10073,7 +10070,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -10087,7 +10084,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -10101,7 +10098,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -10115,7 +10112,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -10129,7 +10126,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -10143,7 +10140,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -10157,7 +10154,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -10171,7 +10168,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -10185,7 +10182,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -10199,7 +10196,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -10213,7 +10210,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -10227,7 +10224,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -10241,7 +10238,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -10255,7 +10252,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -10269,7 +10266,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -10283,7 +10280,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -10297,7 +10294,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -10311,7 +10308,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -10325,7 +10322,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -10339,7 +10336,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -10353,7 +10350,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -10367,7 +10364,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -10381,7 +10378,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -10395,7 +10392,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -10409,7 +10406,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -10423,7 +10420,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -10437,7 +10434,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -10451,7 +10448,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -10465,7 +10462,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -10479,7 +10476,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -10493,7 +10490,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -10507,7 +10504,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -10521,7 +10518,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -10535,7 +10532,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -10549,7 +10546,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -10563,7 +10560,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -10577,7 +10574,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -10591,7 +10588,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -10605,7 +10602,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -10619,7 +10616,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -10633,7 +10630,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -10647,7 +10644,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -10661,7 +10658,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -10675,7 +10672,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -10689,7 +10686,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -10703,7 +10700,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -10717,7 +10714,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -10731,7 +10728,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -10745,7 +10742,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -10759,7 +10756,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -10773,7 +10770,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -10787,7 +10784,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -10801,7 +10798,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -10815,7 +10812,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -10829,7 +10826,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -10843,7 +10840,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -10857,7 +10854,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -10871,7 +10868,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -10885,7 +10882,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -10899,7 +10896,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -10913,7 +10910,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -10927,7 +10924,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -10941,7 +10938,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -10955,7 +10952,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -10969,7 +10966,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -10983,7 +10980,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -10997,7 +10994,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -11011,7 +11008,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -11025,7 +11022,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -11039,7 +11036,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -11053,7 +11050,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -11067,7 +11064,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -11081,7 +11078,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -11095,7 +11092,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>124</v>
       </c>
@@ -11109,7 +11106,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>125</v>
       </c>
@@ -11123,7 +11120,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>126</v>
       </c>
@@ -11137,7 +11134,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -11151,7 +11148,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>128</v>
       </c>
@@ -11165,7 +11162,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -11179,7 +11176,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>130</v>
       </c>
@@ -11193,7 +11190,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -11207,7 +11204,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>132</v>
       </c>
@@ -11221,7 +11218,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -11235,7 +11232,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>134</v>
       </c>
@@ -11249,7 +11246,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>135</v>
       </c>
@@ -11263,7 +11260,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>136</v>
       </c>
@@ -11277,7 +11274,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>137</v>
       </c>
@@ -11291,7 +11288,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>138</v>
       </c>
@@ -11305,7 +11302,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>139</v>
       </c>
@@ -11319,7 +11316,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>140</v>
       </c>
@@ -11333,7 +11330,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>141</v>
       </c>
@@ -11347,7 +11344,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>142</v>
       </c>
@@ -11361,7 +11358,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>143</v>
       </c>
@@ -11375,7 +11372,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>144</v>
       </c>
@@ -11389,7 +11386,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>145</v>
       </c>
@@ -11403,7 +11400,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>146</v>
       </c>
@@ -11417,7 +11414,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -11431,7 +11428,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>148</v>
       </c>
@@ -11445,7 +11442,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>149</v>
       </c>
@@ -11459,7 +11456,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>150</v>
       </c>
@@ -11473,7 +11470,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>151</v>
       </c>
@@ -11487,7 +11484,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>152</v>
       </c>
@@ -11501,7 +11498,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -11515,7 +11512,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>154</v>
       </c>
@@ -11529,7 +11526,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>155</v>
       </c>
@@ -11543,7 +11540,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>156</v>
       </c>
@@ -11557,7 +11554,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>157</v>
       </c>
@@ -11571,7 +11568,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>158</v>
       </c>
@@ -11585,7 +11582,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>159</v>
       </c>
@@ -11599,7 +11596,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>160</v>
       </c>
@@ -11613,7 +11610,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>161</v>
       </c>
@@ -11627,7 +11624,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>162</v>
       </c>
@@ -11641,7 +11638,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>163</v>
       </c>
@@ -11655,7 +11652,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>164</v>
       </c>
@@ -11669,7 +11666,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>165</v>
       </c>
@@ -11683,7 +11680,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>166</v>
       </c>
@@ -11697,7 +11694,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>167</v>
       </c>
@@ -11711,7 +11708,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>168</v>
       </c>
@@ -11725,7 +11722,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>169</v>
       </c>
@@ -11739,7 +11736,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>170</v>
       </c>
@@ -11753,7 +11750,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>171</v>
       </c>
@@ -11767,7 +11764,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>172</v>
       </c>
@@ -11781,7 +11778,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>173</v>
       </c>
@@ -11795,7 +11792,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>174</v>
       </c>
@@ -11809,7 +11806,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>175</v>
       </c>
@@ -11823,7 +11820,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>176</v>
       </c>
@@ -11837,7 +11834,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>177</v>
       </c>
@@ -11851,7 +11848,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>178</v>
       </c>
@@ -11865,7 +11862,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>179</v>
       </c>
@@ -11879,7 +11876,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>180</v>
       </c>
@@ -11893,7 +11890,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>181</v>
       </c>
@@ -11907,7 +11904,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>182</v>
       </c>
@@ -11921,7 +11918,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>183</v>
       </c>
@@ -11935,7 +11932,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>184</v>
       </c>
@@ -11949,7 +11946,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>185</v>
       </c>
@@ -11963,7 +11960,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>186</v>
       </c>
@@ -11977,7 +11974,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>187</v>
       </c>
@@ -11991,7 +11988,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>188</v>
       </c>
@@ -12005,7 +12002,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>189</v>
       </c>
@@ -12019,7 +12016,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>190</v>
       </c>
@@ -12033,7 +12030,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>191</v>
       </c>
@@ -12047,7 +12044,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>192</v>
       </c>
@@ -12061,7 +12058,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>193</v>
       </c>
@@ -12075,7 +12072,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>194</v>
       </c>
@@ -12089,7 +12086,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>195</v>
       </c>
@@ -12103,7 +12100,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>196</v>
       </c>
@@ -12117,7 +12114,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>197</v>
       </c>
@@ -12131,7 +12128,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>198</v>
       </c>
@@ -12145,7 +12142,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>199</v>
       </c>
@@ -12159,7 +12156,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>200</v>
       </c>
@@ -12173,7 +12170,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>201</v>
       </c>
@@ -12187,7 +12184,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>202</v>
       </c>
@@ -12201,7 +12198,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>203</v>
       </c>
@@ -12215,7 +12212,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>204</v>
       </c>
@@ -12229,7 +12226,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>205</v>
       </c>
@@ -12243,7 +12240,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>206</v>
       </c>
@@ -12257,7 +12254,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>207</v>
       </c>
@@ -12271,7 +12268,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>208</v>
       </c>
@@ -12285,7 +12282,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>209</v>
       </c>
@@ -12299,7 +12296,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>210</v>
       </c>
@@ -12313,7 +12310,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>211</v>
       </c>
@@ -12327,7 +12324,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>212</v>
       </c>
@@ -12341,7 +12338,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>213</v>
       </c>
@@ -12355,7 +12352,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>214</v>
       </c>
@@ -12369,7 +12366,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>215</v>
       </c>
@@ -12383,7 +12380,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>216</v>
       </c>
@@ -12397,7 +12394,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>217</v>
       </c>
@@ -12411,7 +12408,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>218</v>
       </c>
@@ -12425,7 +12422,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>219</v>
       </c>
@@ -12439,7 +12436,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>220</v>
       </c>
@@ -12453,7 +12450,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>221</v>
       </c>
@@ -12467,7 +12464,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>222</v>
       </c>
@@ -12481,7 +12478,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>223</v>
       </c>
@@ -12495,7 +12492,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>224</v>
       </c>
@@ -12509,7 +12506,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>225</v>
       </c>
@@ -12523,7 +12520,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>226</v>
       </c>
@@ -12537,7 +12534,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>227</v>
       </c>
@@ -12551,7 +12548,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>228</v>
       </c>
@@ -12565,7 +12562,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>229</v>
       </c>
@@ -12579,7 +12576,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>230</v>
       </c>
@@ -12593,7 +12590,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>231</v>
       </c>
@@ -12607,7 +12604,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>232</v>
       </c>
@@ -12621,7 +12618,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>233</v>
       </c>
@@ -12635,7 +12632,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>234</v>
       </c>
@@ -12649,7 +12646,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>235</v>
       </c>
@@ -12663,7 +12660,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>236</v>
       </c>
@@ -12677,7 +12674,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>237</v>
       </c>
@@ -12691,7 +12688,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>238</v>
       </c>
@@ -12705,7 +12702,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>239</v>
       </c>
@@ -12719,7 +12716,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>240</v>
       </c>
@@ -12733,7 +12730,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>241</v>
       </c>
@@ -12747,7 +12744,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>242</v>
       </c>
@@ -12761,7 +12758,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>243</v>
       </c>
@@ -12775,7 +12772,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>244</v>
       </c>
@@ -12789,7 +12786,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>245</v>
       </c>
@@ -12803,7 +12800,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>246</v>
       </c>
@@ -12817,7 +12814,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>247</v>
       </c>
@@ -12831,7 +12828,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>248</v>
       </c>
@@ -12845,7 +12842,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>249</v>
       </c>
@@ -12859,7 +12856,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>250</v>
       </c>
@@ -12873,7 +12870,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>251</v>
       </c>
@@ -12887,7 +12884,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>252</v>
       </c>
@@ -12901,7 +12898,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>253</v>
       </c>
@@ -12915,7 +12912,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>254</v>
       </c>
@@ -12929,7 +12926,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>255</v>
       </c>
@@ -12943,7 +12940,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>256</v>
       </c>
@@ -12957,7 +12954,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>257</v>
       </c>
@@ -12971,7 +12968,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>258</v>
       </c>
@@ -12985,7 +12982,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>259</v>
       </c>
@@ -12999,7 +12996,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>260</v>
       </c>
@@ -13013,7 +13010,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>261</v>
       </c>
@@ -13027,7 +13024,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>262</v>
       </c>
@@ -13041,7 +13038,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>263</v>
       </c>
@@ -13055,7 +13052,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>264</v>
       </c>
@@ -13069,7 +13066,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>265</v>
       </c>
@@ -13083,7 +13080,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>266</v>
       </c>
@@ -13097,7 +13094,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>267</v>
       </c>
@@ -13111,7 +13108,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>268</v>
       </c>
@@ -13125,7 +13122,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>269</v>
       </c>
@@ -13139,7 +13136,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>270</v>
       </c>
@@ -13153,7 +13150,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>271</v>
       </c>
@@ -13167,7 +13164,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>272</v>
       </c>
@@ -13181,7 +13178,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>273</v>
       </c>
@@ -13195,7 +13192,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>274</v>
       </c>
@@ -13209,7 +13206,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>275</v>
       </c>
@@ -13223,7 +13220,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>276</v>
       </c>
@@ -13237,7 +13234,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>277</v>
       </c>
@@ -13251,7 +13248,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>278</v>
       </c>
@@ -13265,7 +13262,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>279</v>
       </c>
@@ -13279,7 +13276,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>280</v>
       </c>
@@ -13293,7 +13290,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>281</v>
       </c>
@@ -13307,7 +13304,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>282</v>
       </c>
@@ -13321,7 +13318,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>283</v>
       </c>
@@ -13335,7 +13332,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>284</v>
       </c>
@@ -13349,7 +13346,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>285</v>
       </c>
@@ -13363,7 +13360,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>286</v>
       </c>
@@ -13377,7 +13374,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>287</v>
       </c>
@@ -13391,7 +13388,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>288</v>
       </c>
@@ -13405,7 +13402,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>289</v>
       </c>
@@ -13419,7 +13416,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>290</v>
       </c>
@@ -13433,7 +13430,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>291</v>
       </c>
@@ -13447,7 +13444,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>292</v>
       </c>
@@ -13461,7 +13458,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>293</v>
       </c>
@@ -13475,7 +13472,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>294</v>
       </c>
@@ -13489,7 +13486,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>295</v>
       </c>
@@ -13503,7 +13500,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>296</v>
       </c>
@@ -13517,7 +13514,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>297</v>
       </c>
@@ -13531,7 +13528,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>298</v>
       </c>
@@ -13545,7 +13542,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>299</v>
       </c>
@@ -13559,7 +13556,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>300</v>
       </c>
@@ -13573,7 +13570,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>301</v>
       </c>
@@ -13593,20 +13590,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE515BF-79FE-384F-8A87-78DFBA2D1E2F}">
-  <dimension ref="A1:E16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView zoomScale="223" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" zoomScale="223" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13619,11 +13616,8 @@
       <c r="D1" t="s">
         <v>303</v>
       </c>
-      <c r="E1" t="s">
-        <v>1473</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -13636,11 +13630,8 @@
       <c r="D2" t="s">
         <v>305</v>
       </c>
-      <c r="E2" t="s">
-        <v>1474</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -13653,11 +13644,8 @@
       <c r="D3" t="s">
         <v>307</v>
       </c>
-      <c r="E3" t="s">
-        <v>1474</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -13670,11 +13658,8 @@
       <c r="D4" t="s">
         <v>309</v>
       </c>
-      <c r="E4" t="s">
-        <v>1474</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -13687,11 +13672,8 @@
       <c r="D5" t="s">
         <v>311</v>
       </c>
-      <c r="E5" t="s">
-        <v>1474</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -13704,11 +13686,8 @@
       <c r="D6" t="s">
         <v>313</v>
       </c>
-      <c r="E6" t="s">
-        <v>1474</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>102</v>
       </c>
@@ -13721,11 +13700,8 @@
       <c r="D7" t="s">
         <v>491</v>
       </c>
-      <c r="E7" t="s">
-        <v>1474</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>103</v>
       </c>
@@ -13738,11 +13714,8 @@
       <c r="D8" t="s">
         <v>493</v>
       </c>
-      <c r="E8" t="s">
-        <v>1474</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>104</v>
       </c>
@@ -13755,11 +13728,8 @@
       <c r="D9" t="s">
         <v>495</v>
       </c>
-      <c r="E9" t="s">
-        <v>1474</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>105</v>
       </c>
@@ -13772,11 +13742,8 @@
       <c r="D10" t="s">
         <v>480</v>
       </c>
-      <c r="E10" t="s">
-        <v>1474</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>106</v>
       </c>
@@ -13789,11 +13756,8 @@
       <c r="D11" t="s">
         <v>369</v>
       </c>
-      <c r="E11" t="s">
-        <v>1474</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>202</v>
       </c>
@@ -13806,11 +13770,8 @@
       <c r="D12" t="s">
         <v>528</v>
       </c>
-      <c r="E12" t="s">
-        <v>1474</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>203</v>
       </c>
@@ -13823,11 +13784,8 @@
       <c r="D13" t="s">
         <v>652</v>
       </c>
-      <c r="E13" t="s">
-        <v>1474</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>204</v>
       </c>
@@ -13840,11 +13798,8 @@
       <c r="D14" t="s">
         <v>557</v>
       </c>
-      <c r="E14" t="s">
-        <v>1474</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>205</v>
       </c>
@@ -13857,11 +13812,8 @@
       <c r="D15" t="s">
         <v>482</v>
       </c>
-      <c r="E15" t="s">
-        <v>1474</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>206</v>
       </c>
@@ -13873,9 +13825,6 @@
       </c>
       <c r="D16" t="s">
         <v>656</v>
-      </c>
-      <c r="E16" t="s">
-        <v>1474</v>
       </c>
     </row>
   </sheetData>
@@ -13884,20 +13833,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D99F80EE-B930-AE45-9D4A-163325A2F9E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D302"/>
   <sheetViews>
     <sheetView zoomScale="200" workbookViewId="0">
       <selection activeCell="A6" sqref="A6:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13911,7 +13860,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -13925,7 +13874,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -13939,7 +13888,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -13953,7 +13902,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -13967,7 +13916,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -13981,7 +13930,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -13995,7 +13944,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -14009,7 +13958,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -14023,7 +13972,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -14037,7 +13986,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -14051,7 +14000,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -14065,7 +14014,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -14079,7 +14028,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -14093,7 +14042,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -14107,7 +14056,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -14121,7 +14070,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -14135,7 +14084,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -14149,7 +14098,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -14163,7 +14112,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -14177,7 +14126,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -14191,7 +14140,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -14205,7 +14154,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -14219,7 +14168,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -14233,7 +14182,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -14247,7 +14196,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -14261,7 +14210,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -14275,7 +14224,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -14289,7 +14238,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -14303,7 +14252,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -14317,7 +14266,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -14331,7 +14280,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -14345,7 +14294,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -14359,7 +14308,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -14373,7 +14322,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -14387,7 +14336,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -14401,7 +14350,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -14415,7 +14364,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -14429,7 +14378,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -14443,7 +14392,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -14457,7 +14406,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -14471,7 +14420,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -14485,7 +14434,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -14499,7 +14448,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -14513,7 +14462,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -14527,7 +14476,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -14541,7 +14490,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -14555,7 +14504,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -14569,7 +14518,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -14583,7 +14532,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -14597,7 +14546,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -14611,7 +14560,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -14625,7 +14574,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -14639,7 +14588,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -14653,7 +14602,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -14667,7 +14616,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -14681,7 +14630,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -14695,7 +14644,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -14709,7 +14658,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -14723,7 +14672,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -14737,7 +14686,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -14751,7 +14700,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -14765,7 +14714,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -14779,7 +14728,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -14793,7 +14742,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -14807,7 +14756,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -14821,7 +14770,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -14835,7 +14784,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -14849,7 +14798,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -14863,7 +14812,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -14877,7 +14826,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -14891,7 +14840,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -14905,7 +14854,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -14919,7 +14868,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -14933,7 +14882,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -14947,7 +14896,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -14961,7 +14910,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -14975,7 +14924,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -14989,7 +14938,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -15003,7 +14952,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -15017,7 +14966,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -15031,7 +14980,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -15045,7 +14994,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -15059,7 +15008,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -15073,7 +15022,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -15087,7 +15036,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -15101,7 +15050,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -15115,7 +15064,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -15129,7 +15078,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -15143,7 +15092,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -15157,7 +15106,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -15171,7 +15120,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -15185,7 +15134,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -15199,7 +15148,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -15213,7 +15162,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -15227,7 +15176,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -15241,7 +15190,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -15255,7 +15204,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -15269,7 +15218,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -15283,7 +15232,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -15297,7 +15246,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -15311,7 +15260,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -15325,7 +15274,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -15339,7 +15288,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -15353,7 +15302,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -15367,7 +15316,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -15381,7 +15330,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -15395,7 +15344,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -15409,7 +15358,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -15423,7 +15372,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -15437,7 +15386,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -15451,7 +15400,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -15465,7 +15414,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -15479,7 +15428,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -15493,7 +15442,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -15507,7 +15456,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -15521,7 +15470,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -15535,7 +15484,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -15549,7 +15498,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -15563,7 +15512,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -15577,7 +15526,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -15591,7 +15540,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -15605,7 +15554,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -15619,7 +15568,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -15633,7 +15582,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>124</v>
       </c>
@@ -15647,7 +15596,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>125</v>
       </c>
@@ -15661,7 +15610,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>126</v>
       </c>
@@ -15675,7 +15624,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -15689,7 +15638,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>128</v>
       </c>
@@ -15703,7 +15652,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -15717,7 +15666,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>130</v>
       </c>
@@ -15731,7 +15680,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -15745,7 +15694,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>132</v>
       </c>
@@ -15759,7 +15708,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -15773,7 +15722,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>134</v>
       </c>
@@ -15787,7 +15736,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>135</v>
       </c>
@@ -15801,7 +15750,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>136</v>
       </c>
@@ -15815,7 +15764,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>137</v>
       </c>
@@ -15829,7 +15778,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>138</v>
       </c>
@@ -15843,7 +15792,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>139</v>
       </c>
@@ -15857,7 +15806,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>140</v>
       </c>
@@ -15871,7 +15820,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>141</v>
       </c>
@@ -15885,7 +15834,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>142</v>
       </c>
@@ -15899,7 +15848,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>143</v>
       </c>
@@ -15913,7 +15862,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>144</v>
       </c>
@@ -15927,7 +15876,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>145</v>
       </c>
@@ -15941,7 +15890,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>146</v>
       </c>
@@ -15955,7 +15904,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -15969,7 +15918,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>148</v>
       </c>
@@ -15983,7 +15932,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>149</v>
       </c>
@@ -15997,7 +15946,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>150</v>
       </c>
@@ -16011,7 +15960,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>151</v>
       </c>
@@ -16025,7 +15974,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>152</v>
       </c>
@@ -16039,7 +15988,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -16053,7 +16002,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>154</v>
       </c>
@@ -16067,7 +16016,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>155</v>
       </c>
@@ -16081,7 +16030,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>156</v>
       </c>
@@ -16095,7 +16044,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>157</v>
       </c>
@@ -16109,7 +16058,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>158</v>
       </c>
@@ -16123,7 +16072,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>159</v>
       </c>
@@ -16137,7 +16086,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>160</v>
       </c>
@@ -16151,7 +16100,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>161</v>
       </c>
@@ -16165,7 +16114,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>162</v>
       </c>
@@ -16179,7 +16128,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>163</v>
       </c>
@@ -16193,7 +16142,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>164</v>
       </c>
@@ -16207,7 +16156,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>165</v>
       </c>
@@ -16221,7 +16170,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>166</v>
       </c>
@@ -16235,7 +16184,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>167</v>
       </c>
@@ -16249,7 +16198,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>168</v>
       </c>
@@ -16263,7 +16212,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>169</v>
       </c>
@@ -16277,7 +16226,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>170</v>
       </c>
@@ -16291,7 +16240,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>171</v>
       </c>
@@ -16305,7 +16254,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>172</v>
       </c>
@@ -16319,7 +16268,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>173</v>
       </c>
@@ -16333,7 +16282,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>174</v>
       </c>
@@ -16347,7 +16296,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>175</v>
       </c>
@@ -16361,7 +16310,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>176</v>
       </c>
@@ -16375,7 +16324,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>177</v>
       </c>
@@ -16389,7 +16338,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>178</v>
       </c>
@@ -16403,7 +16352,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>179</v>
       </c>
@@ -16417,7 +16366,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>180</v>
       </c>
@@ -16431,7 +16380,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>181</v>
       </c>
@@ -16445,7 +16394,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>182</v>
       </c>
@@ -16459,7 +16408,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>183</v>
       </c>
@@ -16473,7 +16422,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>184</v>
       </c>
@@ -16487,7 +16436,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>185</v>
       </c>
@@ -16501,7 +16450,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>186</v>
       </c>
@@ -16515,7 +16464,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>187</v>
       </c>
@@ -16529,7 +16478,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>188</v>
       </c>
@@ -16543,7 +16492,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>189</v>
       </c>
@@ -16557,7 +16506,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>190</v>
       </c>
@@ -16571,7 +16520,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>191</v>
       </c>
@@ -16585,7 +16534,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>192</v>
       </c>
@@ -16599,7 +16548,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>193</v>
       </c>
@@ -16613,7 +16562,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>194</v>
       </c>
@@ -16627,7 +16576,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>195</v>
       </c>
@@ -16641,7 +16590,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>196</v>
       </c>
@@ -16655,7 +16604,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>197</v>
       </c>
@@ -16669,7 +16618,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>198</v>
       </c>
@@ -16683,7 +16632,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>199</v>
       </c>
@@ -16697,7 +16646,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>200</v>
       </c>
@@ -16711,7 +16660,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>201</v>
       </c>
@@ -16725,7 +16674,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>202</v>
       </c>
@@ -16739,7 +16688,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>203</v>
       </c>
@@ -16753,7 +16702,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>204</v>
       </c>
@@ -16767,7 +16716,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>205</v>
       </c>
@@ -16781,7 +16730,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>206</v>
       </c>
@@ -16795,7 +16744,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>207</v>
       </c>
@@ -16809,7 +16758,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>208</v>
       </c>
@@ -16823,7 +16772,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>209</v>
       </c>
@@ -16837,7 +16786,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>210</v>
       </c>
@@ -16851,7 +16800,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>211</v>
       </c>
@@ -16865,7 +16814,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>212</v>
       </c>
@@ -16879,7 +16828,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>213</v>
       </c>
@@ -16893,7 +16842,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>214</v>
       </c>
@@ -16907,7 +16856,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>215</v>
       </c>
@@ -16921,7 +16870,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>216</v>
       </c>
@@ -16935,7 +16884,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>217</v>
       </c>
@@ -16949,7 +16898,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>218</v>
       </c>
@@ -16963,7 +16912,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>219</v>
       </c>
@@ -16977,7 +16926,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>220</v>
       </c>
@@ -16991,7 +16940,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>221</v>
       </c>
@@ -17005,7 +16954,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>222</v>
       </c>
@@ -17019,7 +16968,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>223</v>
       </c>
@@ -17033,7 +16982,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>224</v>
       </c>
@@ -17047,7 +16996,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>225</v>
       </c>
@@ -17061,7 +17010,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>226</v>
       </c>
@@ -17075,7 +17024,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>227</v>
       </c>
@@ -17089,7 +17038,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>228</v>
       </c>
@@ -17103,7 +17052,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>229</v>
       </c>
@@ -17117,7 +17066,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>230</v>
       </c>
@@ -17131,7 +17080,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>231</v>
       </c>
@@ -17145,7 +17094,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>232</v>
       </c>
@@ -17159,7 +17108,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>233</v>
       </c>
@@ -17173,7 +17122,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>234</v>
       </c>
@@ -17187,7 +17136,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>235</v>
       </c>
@@ -17201,7 +17150,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>236</v>
       </c>
@@ -17215,7 +17164,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>237</v>
       </c>
@@ -17229,7 +17178,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>238</v>
       </c>
@@ -17243,7 +17192,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>239</v>
       </c>
@@ -17257,7 +17206,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>240</v>
       </c>
@@ -17271,7 +17220,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>241</v>
       </c>
@@ -17285,7 +17234,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>242</v>
       </c>
@@ -17299,7 +17248,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>243</v>
       </c>
@@ -17313,7 +17262,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>244</v>
       </c>
@@ -17327,7 +17276,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>245</v>
       </c>
@@ -17341,7 +17290,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>246</v>
       </c>
@@ -17355,7 +17304,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>247</v>
       </c>
@@ -17369,7 +17318,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>248</v>
       </c>
@@ -17383,7 +17332,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>249</v>
       </c>
@@ -17397,7 +17346,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>250</v>
       </c>
@@ -17411,7 +17360,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>251</v>
       </c>
@@ -17425,7 +17374,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>252</v>
       </c>
@@ -17439,7 +17388,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>253</v>
       </c>
@@ -17453,7 +17402,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>254</v>
       </c>
@@ -17467,7 +17416,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>255</v>
       </c>
@@ -17481,7 +17430,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>256</v>
       </c>
@@ -17495,7 +17444,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>257</v>
       </c>
@@ -17509,7 +17458,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>258</v>
       </c>
@@ -17523,7 +17472,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>259</v>
       </c>
@@ -17537,7 +17486,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>260</v>
       </c>
@@ -17551,7 +17500,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>261</v>
       </c>
@@ -17565,7 +17514,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>262</v>
       </c>
@@ -17579,7 +17528,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>263</v>
       </c>
@@ -17593,7 +17542,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>264</v>
       </c>
@@ -17607,7 +17556,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>265</v>
       </c>
@@ -17621,7 +17570,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>266</v>
       </c>
@@ -17635,7 +17584,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>267</v>
       </c>
@@ -17649,7 +17598,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>268</v>
       </c>
@@ -17663,7 +17612,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>269</v>
       </c>
@@ -17677,7 +17626,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>270</v>
       </c>
@@ -17691,7 +17640,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>271</v>
       </c>
@@ -17705,7 +17654,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>272</v>
       </c>
@@ -17719,7 +17668,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>273</v>
       </c>
@@ -17733,7 +17682,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>274</v>
       </c>
@@ -17747,7 +17696,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>275</v>
       </c>
@@ -17761,7 +17710,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>276</v>
       </c>
@@ -17775,7 +17724,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>277</v>
       </c>
@@ -17789,7 +17738,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>278</v>
       </c>
@@ -17803,7 +17752,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>279</v>
       </c>
@@ -17817,7 +17766,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>280</v>
       </c>
@@ -17831,7 +17780,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>281</v>
       </c>
@@ -17845,7 +17794,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>282</v>
       </c>
@@ -17859,7 +17808,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>283</v>
       </c>
@@ -17873,7 +17822,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>284</v>
       </c>
@@ -17887,7 +17836,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>285</v>
       </c>
@@ -17901,7 +17850,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>286</v>
       </c>
@@ -17915,7 +17864,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>287</v>
       </c>
@@ -17929,7 +17878,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>288</v>
       </c>
@@ -17943,7 +17892,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>289</v>
       </c>
@@ -17957,7 +17906,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>290</v>
       </c>
@@ -17971,7 +17920,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>291</v>
       </c>
@@ -17985,7 +17934,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>292</v>
       </c>
@@ -17999,7 +17948,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>293</v>
       </c>
@@ -18013,7 +17962,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>294</v>
       </c>
@@ -18027,7 +17976,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>295</v>
       </c>
@@ -18041,7 +17990,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>296</v>
       </c>
@@ -18055,7 +18004,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>297</v>
       </c>
@@ -18069,7 +18018,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>298</v>
       </c>
@@ -18083,7 +18032,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>299</v>
       </c>
@@ -18097,7 +18046,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>300</v>
       </c>
@@ -18111,7 +18060,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>301</v>
       </c>
@@ -18131,20 +18080,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C30F00C-C683-0548-B7C4-02FB1EBCAEF1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView zoomScale="200" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -18158,7 +18107,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -18172,7 +18121,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -18186,7 +18135,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -18200,7 +18149,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>102</v>
       </c>
@@ -18214,7 +18163,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>103</v>
       </c>
@@ -18228,7 +18177,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>104</v>
       </c>
@@ -18242,7 +18191,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>105</v>
       </c>
@@ -18256,7 +18205,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>106</v>
       </c>
@@ -18270,7 +18219,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>202</v>
       </c>
@@ -18284,7 +18233,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>203</v>
       </c>
@@ -18298,7 +18247,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>204</v>
       </c>
@@ -18312,7 +18261,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>205</v>
       </c>
@@ -18326,7 +18275,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>206</v>
       </c>
